--- a/Broadmeadow Coal Mine, Australia, M0016.xlsx
+++ b/Broadmeadow Coal Mine, Australia, M0016.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Broadmeadow Coal Mine, Australia, M0016, version 'mines - January 30 (built on January 30 2026 16.19.47 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Broadmeadow Coal Mine, Australia, M0016, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">

--- a/Broadmeadow Coal Mine, Australia, M0016.xlsx
+++ b/Broadmeadow Coal Mine, Australia, M0016.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Broadmeadow Coal Mine, Australia, M0016, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Broadmeadow Coal Mine, Australia, M0016, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">

--- a/Broadmeadow Coal Mine, Australia, M0016.xlsx
+++ b/Broadmeadow Coal Mine, Australia, M0016.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Broadmeadow Coal Mine, Australia, M0016, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Broadmeadow Coal Mine, Australia, M0016, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">

--- a/Broadmeadow Coal Mine, Australia, M0016.xlsx
+++ b/Broadmeadow Coal Mine, Australia, M0016.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Broadmeadow Coal Mine, Australia, M0016, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Broadmeadow Coal Mine, Australia, M0016, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
